--- a/doc/機能一覧/02_機能一覧_C4.xlsx
+++ b/doc/機能一覧/02_機能一覧_C4.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\6月\PlusDojo6月作成ドキュメントテンプレート (1)\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\機能一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D493AE5A-E4DD-4F38-BE48-2B0609D8C52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBED6F89-875B-474A-880F-019DEDC690C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="機能一覧 " sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -339,13 +339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>三浦先生</t>
-    <rPh sb="0" eb="4">
-      <t>ミウラセンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ChServlet</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -497,6 +490,38 @@
   </si>
   <si>
     <t>LinX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム生成のための画面と機能を作成し、そこで疑似的に定刻のチャンネルランダム生成を行う。</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ギジテキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テイコク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動更新を行い、表示する。</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウコウシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -598,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -620,22 +645,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -644,26 +654,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,11 +969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62BE865-D456-44B8-8E8A-D678463E5DC9}">
+  <dimension ref="B2:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -991,44 +992,44 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="7"/>
+      <c r="H2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="13">
         <v>45455</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1065,23 +1066,23 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1089,23 +1090,23 @@
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1113,23 +1114,23 @@
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1137,23 +1138,23 @@
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1161,411 +1162,409 @@
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
-        <v>7</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
+      <c r="H22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
         <v>19</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
         <v>20</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
-        <v>8</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B16" s="11">
-        <v>9</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
-        <v>10</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B18" s="11">
-        <v>11</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
-        <v>12</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B20" s="11">
-        <v>13</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
-        <v>14</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="11">
-        <v>15</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="11">
-        <v>16</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B24" s="11">
-        <v>17</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
-        <v>18</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B26" s="11">
-        <v>19</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="11">
-        <v>20</v>
-      </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="11">
+      <c r="B28" s="2">
         <v>21</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="11">
+      <c r="B29" s="2">
         <v>22</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="11">
+      <c r="B30" s="2">
         <v>23</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="11">
+      <c r="B31" s="2">
         <v>24</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="11">
+      <c r="B32" s="2">
         <v>25</v>
       </c>
       <c r="C32" s="2"/>
@@ -1576,53 +1575,8 @@
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="11">
-        <v>26</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="19"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="19"/>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/機能一覧/02_機能一覧_C4.xlsx
+++ b/doc/機能一覧/02_機能一覧_C4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C4\doc\機能一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBED6F89-875B-474A-880F-019DEDC690C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08640C7E-9CFE-4A3A-967F-994534085DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧 " sheetId="2" r:id="rId1"/>
@@ -493,25 +493,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ランダム生成のための画面と機能を作成し、そこで疑似的に定刻のチャンネルランダム生成を行う。</t>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ギジテキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>テイコク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自動更新を行い、表示する。</t>
     <rPh sb="0" eb="4">
       <t>ジドウコウシン</t>
@@ -521,6 +502,28 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム生成のための画面と機能を自動で作成し、そこで疑似的に定刻のチャンネルランダム生成を行う。</t>
+    <rPh sb="16" eb="18">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ギジテキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テイコク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -972,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62BE865-D456-44B8-8E8A-D678463E5DC9}">
   <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1368,7 +1371,7 @@
         <v>17</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>23</v>
@@ -1390,7 +1393,7 @@
         <v>17</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>23</v>
@@ -1462,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>23</v>
